--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H2">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.56240086359315</v>
+        <v>9.575242333333334</v>
       </c>
       <c r="N2">
-        <v>3.56240086359315</v>
+        <v>28.725727</v>
       </c>
       <c r="O2">
-        <v>0.4384292261508341</v>
+        <v>0.6572152168068958</v>
       </c>
       <c r="P2">
-        <v>0.4384292261508341</v>
+        <v>0.6572152168068958</v>
       </c>
       <c r="Q2">
-        <v>248.3303258143146</v>
+        <v>775.9426188403729</v>
       </c>
       <c r="R2">
-        <v>248.3303258143146</v>
+        <v>6983.483569563356</v>
       </c>
       <c r="S2">
-        <v>0.06617475275601975</v>
+        <v>0.107318752773691</v>
       </c>
       <c r="T2">
-        <v>0.06617475275601975</v>
+        <v>0.107318752773691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H3">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.329339673756757</v>
+        <v>0.34342</v>
       </c>
       <c r="N3">
-        <v>0.329339673756757</v>
+        <v>1.03026</v>
       </c>
       <c r="O3">
-        <v>0.04053225446400344</v>
+        <v>0.0235712937488918</v>
       </c>
       <c r="P3">
-        <v>0.04053225446400344</v>
+        <v>0.0235712937488918</v>
       </c>
       <c r="Q3">
-        <v>22.95783984430786</v>
+        <v>27.82950079858667</v>
       </c>
       <c r="R3">
-        <v>22.95783984430786</v>
+        <v>250.46550718728</v>
       </c>
       <c r="S3">
-        <v>0.00611777627451491</v>
+        <v>0.003849031157074732</v>
       </c>
       <c r="T3">
-        <v>0.00611777627451491</v>
+        <v>0.003849031157074732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H4">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I4">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J4">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.77347302992867</v>
+        <v>2.978372666666667</v>
       </c>
       <c r="N4">
-        <v>2.77347302992867</v>
+        <v>8.935117999999999</v>
       </c>
       <c r="O4">
-        <v>0.3413348696068327</v>
+        <v>0.2044263497165867</v>
       </c>
       <c r="P4">
-        <v>0.3413348696068327</v>
+        <v>0.2044263497165867</v>
       </c>
       <c r="Q4">
-        <v>193.3351937447934</v>
+        <v>241.3564280050338</v>
       </c>
       <c r="R4">
-        <v>193.3351937447934</v>
+        <v>2172.207852045304</v>
       </c>
       <c r="S4">
-        <v>0.05151971916094266</v>
+        <v>0.03338142563444108</v>
       </c>
       <c r="T4">
-        <v>0.05151971916094266</v>
+        <v>0.03338142563444108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H5">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I5">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J5">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.46015912940284</v>
+        <v>1.672381666666666</v>
       </c>
       <c r="N5">
-        <v>1.46015912940284</v>
+        <v>5.017144999999999</v>
       </c>
       <c r="O5">
-        <v>0.1797036497783297</v>
+        <v>0.1147871397276258</v>
       </c>
       <c r="P5">
-        <v>0.1797036497783297</v>
+        <v>0.1147871397276258</v>
       </c>
       <c r="Q5">
-        <v>101.7857917257581</v>
+        <v>135.5236938094511</v>
       </c>
       <c r="R5">
-        <v>101.7857917257581</v>
+        <v>1219.71324428506</v>
       </c>
       <c r="S5">
-        <v>0.02712374970491621</v>
+        <v>0.01874395533609157</v>
       </c>
       <c r="T5">
-        <v>0.02712374970491621</v>
+        <v>0.01874395533609157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H6">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J6">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.56240086359315</v>
+        <v>9.575242333333334</v>
       </c>
       <c r="N6">
-        <v>3.56240086359315</v>
+        <v>28.725727</v>
       </c>
       <c r="O6">
-        <v>0.4384292261508341</v>
+        <v>0.6572152168068958</v>
       </c>
       <c r="P6">
-        <v>0.4384292261508341</v>
+        <v>0.6572152168068958</v>
       </c>
       <c r="Q6">
-        <v>630.1509449327973</v>
+        <v>1707.895893032259</v>
       </c>
       <c r="R6">
-        <v>630.1509449327973</v>
+        <v>15371.06303729033</v>
       </c>
       <c r="S6">
-        <v>0.1679218309046987</v>
+        <v>0.2362149631392235</v>
       </c>
       <c r="T6">
-        <v>0.1679218309046987</v>
+        <v>0.2362149631392235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H7">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J7">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.329339673756757</v>
+        <v>0.34342</v>
       </c>
       <c r="N7">
-        <v>0.329339673756757</v>
+        <v>1.03026</v>
       </c>
       <c r="O7">
-        <v>0.04053225446400344</v>
+        <v>0.0235712937488918</v>
       </c>
       <c r="P7">
-        <v>0.04053225446400344</v>
+        <v>0.0235712937488918</v>
       </c>
       <c r="Q7">
-        <v>58.25669669649545</v>
+        <v>61.25438784388</v>
       </c>
       <c r="R7">
-        <v>58.25669669649545</v>
+        <v>551.2894905949199</v>
       </c>
       <c r="S7">
-        <v>0.01552417123293927</v>
+        <v>0.008471946695163411</v>
       </c>
       <c r="T7">
-        <v>0.01552417123293927</v>
+        <v>0.008471946695163412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H8">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J8">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.77347302992867</v>
+        <v>2.978372666666667</v>
       </c>
       <c r="N8">
-        <v>2.77347302992867</v>
+        <v>8.935117999999999</v>
       </c>
       <c r="O8">
-        <v>0.3413348696068327</v>
+        <v>0.2044263497165867</v>
       </c>
       <c r="P8">
-        <v>0.3413348696068327</v>
+        <v>0.2044263497165867</v>
       </c>
       <c r="Q8">
-        <v>490.5979752071999</v>
+        <v>531.2398650853506</v>
       </c>
       <c r="R8">
-        <v>490.5979752071999</v>
+        <v>4781.158785768155</v>
       </c>
       <c r="S8">
-        <v>0.1307339311277501</v>
+        <v>0.07347450489293489</v>
       </c>
       <c r="T8">
-        <v>0.1307339311277501</v>
+        <v>0.0734745048929349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H9">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J9">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.46015912940284</v>
+        <v>1.672381666666666</v>
       </c>
       <c r="N9">
-        <v>1.46015912940284</v>
+        <v>5.017144999999999</v>
       </c>
       <c r="O9">
-        <v>0.1797036497783297</v>
+        <v>0.1147871397276258</v>
       </c>
       <c r="P9">
-        <v>0.1797036497783297</v>
+        <v>0.1147871397276258</v>
       </c>
       <c r="Q9">
-        <v>258.2866696864057</v>
+        <v>298.2957172936766</v>
       </c>
       <c r="R9">
-        <v>258.2866696864057</v>
+        <v>2684.66145564309</v>
       </c>
       <c r="S9">
-        <v>0.06882790674327054</v>
+        <v>0.04125656145235729</v>
       </c>
       <c r="T9">
-        <v>0.06882790674327054</v>
+        <v>0.0412565614523573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H10">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I10">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J10">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.56240086359315</v>
+        <v>9.575242333333334</v>
       </c>
       <c r="N10">
-        <v>3.56240086359315</v>
+        <v>28.725727</v>
       </c>
       <c r="O10">
-        <v>0.4384292261508341</v>
+        <v>0.6572152168068958</v>
       </c>
       <c r="P10">
-        <v>0.4384292261508341</v>
+        <v>0.6572152168068958</v>
       </c>
       <c r="Q10">
-        <v>446.391824686668</v>
+        <v>1400.190849425051</v>
       </c>
       <c r="R10">
-        <v>446.391824686668</v>
+        <v>12601.71764482546</v>
       </c>
       <c r="S10">
-        <v>0.1189539317603794</v>
+        <v>0.1936570204508181</v>
       </c>
       <c r="T10">
-        <v>0.1189539317603794</v>
+        <v>0.1936570204508181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H11">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I11">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J11">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.329339673756757</v>
+        <v>0.34342</v>
       </c>
       <c r="N11">
-        <v>0.329339673756757</v>
+        <v>1.03026</v>
       </c>
       <c r="O11">
-        <v>0.04053225446400344</v>
+        <v>0.0235712937488918</v>
       </c>
       <c r="P11">
-        <v>0.04053225446400344</v>
+        <v>0.0235712937488918</v>
       </c>
       <c r="Q11">
-        <v>41.26838711848593</v>
+        <v>50.21842004307334</v>
       </c>
       <c r="R11">
-        <v>41.26838711848593</v>
+        <v>451.9657803876601</v>
       </c>
       <c r="S11">
-        <v>0.01099714787249756</v>
+        <v>0.006945588596927757</v>
       </c>
       <c r="T11">
-        <v>0.01099714787249756</v>
+        <v>0.006945588596927758</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H12">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I12">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J12">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.77347302992867</v>
+        <v>2.978372666666667</v>
       </c>
       <c r="N12">
-        <v>2.77347302992867</v>
+        <v>8.935117999999999</v>
       </c>
       <c r="O12">
-        <v>0.3413348696068327</v>
+        <v>0.2044263497165867</v>
       </c>
       <c r="P12">
-        <v>0.3413348696068327</v>
+        <v>0.2044263497165867</v>
       </c>
       <c r="Q12">
-        <v>347.5340743378269</v>
+        <v>435.5284189024376</v>
       </c>
       <c r="R12">
-        <v>347.5340743378269</v>
+        <v>3919.755770121938</v>
       </c>
       <c r="S12">
-        <v>0.09261044283731296</v>
+        <v>0.06023688553666447</v>
       </c>
       <c r="T12">
-        <v>0.09261044283731296</v>
+        <v>0.06023688553666449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H13">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I13">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J13">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.46015912940284</v>
+        <v>1.672381666666666</v>
       </c>
       <c r="N13">
-        <v>1.46015912940284</v>
+        <v>5.017144999999999</v>
       </c>
       <c r="O13">
-        <v>0.1797036497783297</v>
+        <v>0.1147871397276258</v>
       </c>
       <c r="P13">
-        <v>0.1797036497783297</v>
+        <v>0.1147871397276258</v>
       </c>
       <c r="Q13">
-        <v>182.9673647253726</v>
+        <v>244.5529235600772</v>
       </c>
       <c r="R13">
-        <v>182.9673647253726</v>
+        <v>2200.976312040695</v>
       </c>
       <c r="S13">
-        <v>0.04875691312939148</v>
+        <v>0.03382352522774165</v>
       </c>
       <c r="T13">
-        <v>0.04875691312939148</v>
+        <v>0.03382352522774165</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H14">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I14">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J14">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.56240086359315</v>
+        <v>9.575242333333334</v>
       </c>
       <c r="N14">
-        <v>3.56240086359315</v>
+        <v>28.725727</v>
       </c>
       <c r="O14">
-        <v>0.4384292261508341</v>
+        <v>0.6572152168068958</v>
       </c>
       <c r="P14">
-        <v>0.4384292261508341</v>
+        <v>0.6572152168068958</v>
       </c>
       <c r="Q14">
-        <v>320.3959541986022</v>
+        <v>867.808349174688</v>
       </c>
       <c r="R14">
-        <v>320.3959541986022</v>
+        <v>7810.275142572192</v>
       </c>
       <c r="S14">
-        <v>0.08537871072973628</v>
+        <v>0.1200244804431633</v>
       </c>
       <c r="T14">
-        <v>0.08537871072973628</v>
+        <v>0.1200244804431633</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H15">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I15">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J15">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.329339673756757</v>
+        <v>0.34342</v>
       </c>
       <c r="N15">
-        <v>0.329339673756757</v>
+        <v>1.03026</v>
       </c>
       <c r="O15">
-        <v>0.04053225446400344</v>
+        <v>0.0235712937488918</v>
       </c>
       <c r="P15">
-        <v>0.04053225446400344</v>
+        <v>0.0235712937488918</v>
       </c>
       <c r="Q15">
-        <v>29.62022048308247</v>
+        <v>31.12430295744</v>
       </c>
       <c r="R15">
-        <v>29.62022048308247</v>
+        <v>280.11872661696</v>
       </c>
       <c r="S15">
-        <v>0.007893159084051696</v>
+        <v>0.004304727299725901</v>
       </c>
       <c r="T15">
-        <v>0.007893159084051696</v>
+        <v>0.004304727299725902</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H16">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I16">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J16">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.77347302992867</v>
+        <v>2.978372666666667</v>
       </c>
       <c r="N16">
-        <v>2.77347302992867</v>
+        <v>8.935117999999999</v>
       </c>
       <c r="O16">
-        <v>0.3413348696068327</v>
+        <v>0.2044263497165867</v>
       </c>
       <c r="P16">
-        <v>0.3413348696068327</v>
+        <v>0.2044263497165867</v>
       </c>
       <c r="Q16">
-        <v>249.4411976342845</v>
+        <v>269.931201436992</v>
       </c>
       <c r="R16">
-        <v>249.4411976342845</v>
+        <v>2429.380812932928</v>
       </c>
       <c r="S16">
-        <v>0.06647077648082694</v>
+        <v>0.03733353365254623</v>
       </c>
       <c r="T16">
-        <v>0.06647077648082694</v>
+        <v>0.03733353365254625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H17">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I17">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J17">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.46015912940284</v>
+        <v>1.672381666666666</v>
       </c>
       <c r="N17">
-        <v>1.46015912940284</v>
+        <v>5.017144999999999</v>
       </c>
       <c r="O17">
-        <v>0.1797036497783297</v>
+        <v>0.1147871397276258</v>
       </c>
       <c r="P17">
-        <v>0.1797036497783297</v>
+        <v>0.1147871397276258</v>
       </c>
       <c r="Q17">
-        <v>131.324097276059</v>
+        <v>151.56867291888</v>
       </c>
       <c r="R17">
-        <v>131.324097276059</v>
+        <v>1364.11805626992</v>
       </c>
       <c r="S17">
-        <v>0.03499508020075149</v>
+        <v>0.02096309771143527</v>
       </c>
       <c r="T17">
-        <v>0.03499508020075149</v>
+        <v>0.02096309771143527</v>
       </c>
     </row>
   </sheetData>
